--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,10 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Itgb8</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N2">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q2">
-        <v>0.03759609840000001</v>
+        <v>2.397462348393778</v>
       </c>
       <c r="R2">
-        <v>0.3383648856</v>
+        <v>21.577161135544</v>
       </c>
       <c r="S2">
-        <v>0.0001315625854950506</v>
+        <v>0.01350288002828744</v>
       </c>
       <c r="T2">
-        <v>0.0001315625854950506</v>
+        <v>0.01350288002828745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +629,22 @@
         <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q3">
-        <v>4.2617336416</v>
+        <v>9.799667570062223</v>
       </c>
       <c r="R3">
-        <v>38.3556027744</v>
+        <v>88.19700813056002</v>
       </c>
       <c r="S3">
-        <v>0.0149133745372933</v>
+        <v>0.05519324864655412</v>
       </c>
       <c r="T3">
-        <v>0.0149133745372933</v>
+        <v>0.05519324864655412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,60 +667,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.844986</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>26.534958</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.8904062077467443</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P4">
-        <v>0.8904062077467442</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q4">
-        <v>34.93035336162</v>
+        <v>0.02743655074844444</v>
       </c>
       <c r="R4">
-        <v>314.37318025458</v>
+        <v>0.246928956736</v>
       </c>
       <c r="S4">
-        <v>0.122234162481883</v>
+        <v>0.0001545269119218785</v>
       </c>
       <c r="T4">
-        <v>0.1222341624818829</v>
+        <v>0.0001545269119218786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,60 +729,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.958532</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>8.875596</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1028430300826775</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1028430300826775</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009520000000000001</v>
+        <v>5.782978</v>
       </c>
       <c r="N5">
-        <v>0.02856</v>
+        <v>17.348934</v>
       </c>
       <c r="O5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q5">
-        <v>0.02816522464</v>
+        <v>52.51488394995734</v>
       </c>
       <c r="R5">
-        <v>0.25348702176</v>
+        <v>472.633955549616</v>
       </c>
       <c r="S5">
-        <v>9.856048718840745E-05</v>
+        <v>0.2957719766280322</v>
       </c>
       <c r="T5">
-        <v>9.856048718840745E-05</v>
+        <v>0.2957719766280323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.958532</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>8.875596</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1028430300826775</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1028430300826775</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.079146666666667</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N6">
-        <v>3.23744</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q6">
-        <v>3.192689946026667</v>
+        <v>0.02665861677422222</v>
       </c>
       <c r="R6">
-        <v>28.73420951424</v>
+        <v>0.239927550968</v>
       </c>
       <c r="S6">
-        <v>0.01117239718638788</v>
+        <v>0.0001501454670450115</v>
       </c>
       <c r="T6">
-        <v>0.01117239718638788</v>
+        <v>0.0001501454670450115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,196 +859,196 @@
         <v>8.875596</v>
       </c>
       <c r="I7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>8.844986</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N7">
-        <v>26.534958</v>
+        <v>0.792031</v>
       </c>
       <c r="O7">
-        <v>0.8904062077467443</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P7">
-        <v>0.8904062077467442</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q7">
-        <v>26.168174120552</v>
+        <v>0.7810830194973334</v>
       </c>
       <c r="R7">
-        <v>235.513567084968</v>
+        <v>7.029747175476</v>
       </c>
       <c r="S7">
-        <v>0.09157207240910119</v>
+        <v>0.004399180788583002</v>
       </c>
       <c r="T7">
-        <v>0.09157207240910117</v>
+        <v>0.004399180788583003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06096333333333333</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>0.18289</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.002119177323057616</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.002119177323057616</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009520000000000001</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N8">
-        <v>0.02856</v>
+        <v>3.23744</v>
       </c>
       <c r="O8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q8">
-        <v>0.0005803709333333333</v>
+        <v>3.192689946026667</v>
       </c>
       <c r="R8">
-        <v>0.0052233384</v>
+        <v>28.73420951424</v>
       </c>
       <c r="S8">
-        <v>2.030931500474767E-06</v>
+        <v>0.01798172527614469</v>
       </c>
       <c r="T8">
-        <v>2.030931500474767E-06</v>
+        <v>0.01798172527614469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.958532</v>
+      </c>
+      <c r="H9">
+        <v>8.875596</v>
+      </c>
+      <c r="I9">
+        <v>0.1188414169728452</v>
+      </c>
+      <c r="J9">
+        <v>0.1188414169728452</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.06096333333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.18289</v>
-      </c>
-      <c r="I9">
-        <v>0.002119177323057616</v>
-      </c>
-      <c r="J9">
-        <v>0.002119177323057616</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>1.079146666666667</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N9">
-        <v>3.23744</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q9">
-        <v>0.06578837795555556</v>
+        <v>0.008938711349333332</v>
       </c>
       <c r="R9">
-        <v>0.5920954016000001</v>
+        <v>0.08044840214399999</v>
       </c>
       <c r="S9">
-        <v>0.0002302177477905122</v>
+        <v>5.034420959244817E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002302177477905122</v>
+        <v>5.034420959244819E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06096333333333333</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>0.18289</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.002119177323057616</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.002119177323057616</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,42 +1057,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.844986</v>
+        <v>5.782978</v>
       </c>
       <c r="N10">
-        <v>26.534958</v>
+        <v>17.348934</v>
       </c>
       <c r="O10">
-        <v>0.8904062077467443</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P10">
-        <v>0.8904062077467442</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q10">
-        <v>0.5392198298466667</v>
+        <v>17.109125468296</v>
       </c>
       <c r="R10">
-        <v>4.85297846862</v>
+        <v>153.982129214664</v>
       </c>
       <c r="S10">
-        <v>0.001886928643766629</v>
+        <v>0.09636124994500776</v>
       </c>
       <c r="T10">
-        <v>0.001886928643766629</v>
+        <v>0.09636124994500778</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.79878733333333</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>65.396362</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.7577586929895936</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.7577586929895936</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,152 +1119,958 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009520000000000001</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N11">
-        <v>0.02856</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q11">
-        <v>0.2075244554133333</v>
+        <v>0.008685263774666666</v>
       </c>
       <c r="R11">
-        <v>1.86772009872</v>
+        <v>0.07816737397200001</v>
       </c>
       <c r="S11">
-        <v>0.0007262044485879546</v>
+        <v>4.891675351728719E-05</v>
       </c>
       <c r="T11">
-        <v>0.0007262044485879546</v>
+        <v>4.891675351728721E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>21.79878733333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H12">
-        <v>65.396362</v>
+        <v>0.30358</v>
       </c>
       <c r="I12">
-        <v>0.7577586929895936</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J12">
-        <v>0.7577586929895936</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.079146666666667</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N12">
-        <v>3.23744</v>
+        <v>0.792031</v>
       </c>
       <c r="O12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q12">
-        <v>23.52408868814222</v>
+        <v>0.02671608566444445</v>
       </c>
       <c r="R12">
-        <v>211.71679819328</v>
+        <v>0.24044477098</v>
       </c>
       <c r="S12">
-        <v>0.08231944432901217</v>
+        <v>0.0001504691407538184</v>
       </c>
       <c r="T12">
-        <v>0.08231944432901217</v>
+        <v>0.0001504691407538184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.30358</v>
+      </c>
+      <c r="I13">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="J13">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.23744</v>
+      </c>
+      <c r="O13">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P13">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q13">
+        <v>0.1092024483555556</v>
+      </c>
+      <c r="R13">
+        <v>0.9828220352000001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006150451371752392</v>
+      </c>
+      <c r="T13">
+        <v>0.0006150451371752393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.30358</v>
+      </c>
+      <c r="I14">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="J14">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P14">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q14">
+        <v>0.0003057387911111111</v>
+      </c>
+      <c r="R14">
+        <v>0.00275164912</v>
+      </c>
+      <c r="S14">
+        <v>1.721968321685148E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.721968321685149E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.30358</v>
+      </c>
+      <c r="I15">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="J15">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.782978</v>
+      </c>
+      <c r="N15">
+        <v>17.348934</v>
+      </c>
+      <c r="O15">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P15">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q15">
+        <v>0.5851988204133334</v>
+      </c>
+      <c r="R15">
+        <v>5.26678938372</v>
+      </c>
+      <c r="S15">
+        <v>0.003295930578442896</v>
+      </c>
+      <c r="T15">
+        <v>0.003295930578442897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1011933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.30358</v>
+      </c>
+      <c r="I16">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="J16">
+        <v>0.004064839968450158</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P16">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q16">
+        <v>0.0002970698955555556</v>
+      </c>
+      <c r="R16">
+        <v>0.00267362906</v>
+      </c>
+      <c r="S16">
+        <v>1.673143756518215E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.673143756518216E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.559037</v>
+      </c>
+      <c r="H17">
+        <v>37.677111</v>
+      </c>
+      <c r="I17">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="J17">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.792031</v>
+      </c>
+      <c r="O17">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P17">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q17">
+        <v>3.315715544715667</v>
+      </c>
+      <c r="R17">
+        <v>29.841439902441</v>
+      </c>
+      <c r="S17">
+        <v>0.01867462454132763</v>
+      </c>
+      <c r="T17">
+        <v>0.01867462454132763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>12.559037</v>
+      </c>
+      <c r="H18">
+        <v>37.677111</v>
+      </c>
+      <c r="I18">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="J18">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.23744</v>
+      </c>
+      <c r="O18">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P18">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q18">
+        <v>13.55304291509334</v>
+      </c>
+      <c r="R18">
+        <v>121.97738623584</v>
+      </c>
+      <c r="S18">
+        <v>0.07633284110732498</v>
+      </c>
+      <c r="T18">
+        <v>0.07633284110732498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.559037</v>
+      </c>
+      <c r="H19">
+        <v>37.677111</v>
+      </c>
+      <c r="I19">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="J19">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P19">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q19">
+        <v>0.03794503712266667</v>
+      </c>
+      <c r="R19">
+        <v>0.341505334104</v>
+      </c>
+      <c r="S19">
+        <v>0.0002137123380809508</v>
+      </c>
+      <c r="T19">
+        <v>0.0002137123380809509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.559037</v>
+      </c>
+      <c r="H20">
+        <v>37.677111</v>
+      </c>
+      <c r="I20">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="J20">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.782978</v>
+      </c>
+      <c r="N20">
+        <v>17.348934</v>
+      </c>
+      <c r="O20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q20">
+        <v>72.62863467218601</v>
+      </c>
+      <c r="R20">
+        <v>653.657712049674</v>
+      </c>
+      <c r="S20">
+        <v>0.4090557423159867</v>
+      </c>
+      <c r="T20">
+        <v>0.4090557423159867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.559037</v>
+      </c>
+      <c r="H21">
+        <v>37.677111</v>
+      </c>
+      <c r="I21">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="J21">
+        <v>0.5044845730566345</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q21">
+        <v>0.03686914628633334</v>
+      </c>
+      <c r="R21">
+        <v>0.3318223165770001</v>
+      </c>
+      <c r="S21">
+        <v>0.000207652753914269</v>
+      </c>
+      <c r="T21">
+        <v>0.000207652753914269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.585256</v>
+      </c>
+      <c r="I22">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J22">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792031</v>
+      </c>
+      <c r="O22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q22">
+        <v>0.05150454388177778</v>
+      </c>
+      <c r="R22">
+        <v>0.463540894936</v>
+      </c>
+      <c r="S22">
+        <v>0.0002900815845609617</v>
+      </c>
+      <c r="T22">
+        <v>0.0002900815845609617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.585256</v>
+      </c>
+      <c r="I23">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J23">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.23744</v>
+      </c>
+      <c r="O23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q23">
+        <v>0.2105256871822222</v>
+      </c>
+      <c r="R23">
+        <v>1.89473118464</v>
+      </c>
+      <c r="S23">
+        <v>0.001185713343443678</v>
+      </c>
+      <c r="T23">
+        <v>0.001185713343443678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.585256</v>
+      </c>
+      <c r="I24">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J24">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P24">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q24">
+        <v>0.0005894178204444443</v>
+      </c>
+      <c r="R24">
+        <v>0.005304760384</v>
+      </c>
+      <c r="S24">
+        <v>3.319692641399839E-06</v>
+      </c>
+      <c r="T24">
+        <v>3.319692641399841E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>21.79878733333333</v>
-      </c>
-      <c r="H13">
-        <v>65.396362</v>
-      </c>
-      <c r="I13">
-        <v>0.7577586929895936</v>
-      </c>
-      <c r="J13">
-        <v>0.7577586929895936</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.844986</v>
-      </c>
-      <c r="N13">
-        <v>26.534958</v>
-      </c>
-      <c r="O13">
-        <v>0.8904062077467443</v>
-      </c>
-      <c r="P13">
-        <v>0.8904062077467442</v>
-      </c>
-      <c r="Q13">
-        <v>192.8099687803107</v>
-      </c>
-      <c r="R13">
-        <v>1735.289719022796</v>
-      </c>
-      <c r="S13">
-        <v>0.6747130442119935</v>
-      </c>
-      <c r="T13">
-        <v>0.6747130442119934</v>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.585256</v>
+      </c>
+      <c r="I25">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J25">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.782978</v>
+      </c>
+      <c r="N25">
+        <v>17.348934</v>
+      </c>
+      <c r="O25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q25">
+        <v>1.128174190789333</v>
+      </c>
+      <c r="R25">
+        <v>10.153567717104</v>
+      </c>
+      <c r="S25">
+        <v>0.006354052133266934</v>
+      </c>
+      <c r="T25">
+        <v>0.006354052133266935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q26">
+        <v>0.0005727055102222222</v>
+      </c>
+      <c r="R26">
+        <v>0.005154349592</v>
+      </c>
+      <c r="S26">
+        <v>3.22556631650578E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.225566316505781E-06</v>
       </c>
     </row>
   </sheetData>
